--- a/views/excel/販売速報統計_白紙.xlsx
+++ b/views/excel/販売速報統計_白紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Staff\views\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC004C-501E-4671-8425-004765C7A15B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386CF810-BE3F-47D4-B547-ACCBCC3BE1E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>一区</t>
     <rPh sb="0" eb="2">
@@ -158,25 +158,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">地　区　別    </t>
-    <rPh sb="0" eb="1">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ク</t>
-    </rPh>
+    <t>ＸＸＸＸ年ＸＸ月　ＸＸＸＸＸＸＸ　社別販売速報明細</t>
     <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
       <t>ベツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社　　別</t>
-    <rPh sb="0" eb="1">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ベツ</t>
+    <rPh sb="19" eb="21">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソクホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>メイサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -204,7 +206,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ＸＸＸＸ年ＸＸ月　ＸＸＸＸＸＸＸ　社別販売速報明細</t>
+    <t xml:space="preserve">                        地　区　別  
+  社　　別</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -325,6 +328,32 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -345,6 +374,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -365,9 +405,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -377,31 +415,247 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="double">
         <color indexed="64"/>
@@ -409,7 +663,46 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -421,282 +714,124 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -713,33 +848,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -749,19 +875,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,61 +899,91 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,58 +1004,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6149" name="Line 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005180000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9525" y="752475"/>
-          <a:ext cx="2114550" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:U8"/>
+  <dimension ref="A2:U12"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O42" sqref="O41:O42"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1264,241 +1371,379 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="A2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="U3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="24" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="A4" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="U4" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="38"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="46"/>
     </row>
-    <row r="6" spans="1:21" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
+    <row r="6" spans="1:21" ht="24" customHeight="1" thickTop="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12">
         <f>SUM(G6:H6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12">
         <f>SUM(J6:K6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="27">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="28">
         <f>SUM(E6:H6)+SUM(J6:K6)+SUM(M6:R6)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="28">
+      <c r="T6" s="17"/>
+      <c r="U6" s="29">
         <f>S6+T6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="29" t="s">
+    <row r="7" spans="1:21" ht="24" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12">
+        <f t="shared" ref="I7:I10" si="0">SUM(G7:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="12">
+        <f t="shared" ref="L7:L10" si="1">SUM(J7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="16">
+        <f t="shared" ref="S7:S10" si="2">SUM(E7:H7)+SUM(J7:K7)+SUM(M7:R7)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="20"/>
+      <c r="U7" s="18">
+        <f t="shared" ref="U7:U10" si="3">S7+T7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="24" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="20"/>
+      <c r="U8" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="24" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="20"/>
+      <c r="U9" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="24" customHeight="1" thickBot="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20"/>
+      <c r="U10" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="19">
-        <f>SUM(E6:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
-        <f>SUM(F6:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <f>SUM(G6:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <f>SUM(H6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
-        <f>SUM(I6:I6)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <f>SUM(J6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <f>SUM(K6:K6)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="20">
-        <f>SUM(L6:L6)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <f>SUM(M6:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <f>SUM(N6:N6)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <f>SUM(O6:O6)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <f>SUM(P6:P6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20">
-        <f>SUM(Q6:Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="21">
-        <f>SUM(R6:R6)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="22">
-        <f>SUM(S6:S6)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="23">
-        <f>SUM(T6:T6)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
-        <f>SUM(U6:U6)</f>
+      <c r="C11" s="30"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="21">
+        <f>SUM(E6:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <f>SUM(F6:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <f>SUM(G6:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <f>SUM(H6:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <f>SUM(I6:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <f>SUM(J6:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <f>SUM(K6:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <f>SUM(L6:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <f>SUM(M6:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <f>SUM(N6:N10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
+        <f>SUM(O6:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <f>SUM(P6:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <f>SUM(Q6:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
+        <f>SUM(R6:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <f>SUM(S6:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="25">
+        <f>SUM(T6:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="26">
+        <f>SUM(U6:U10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" thickTop="1"/>
+    <row r="12" spans="1:21" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="21">
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="Q4:Q5"/>
@@ -1512,14 +1757,18 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.35433070866141736" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/views/excel/販売速報統計_白紙.xlsx
+++ b/views/excel/販売速報統計_白紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Staff\views\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386CF810-BE3F-47D4-B547-ACCBCC3BE1E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F31C6E-B062-45F4-969A-AFDC8F0ED27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -826,12 +826,23 @@
       <diagonal style="medium">
         <color indexed="64"/>
       </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,26 +931,56 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
@@ -961,33 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:U12"/>
+  <dimension ref="A2:U10"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1371,29 +1385,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
@@ -1405,63 +1419,63 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="24" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="34" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36" t="s">
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="32" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="33"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="27" t="s">
         <v>0</v>
       </c>
@@ -1480,20 +1494,20 @@
       <c r="L5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="46"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" ht="24" customHeight="1" thickTop="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="7"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -1527,21 +1541,21 @@
     </row>
     <row r="7" spans="1:21" ht="24" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="5"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12">
-        <f t="shared" ref="I7:I10" si="0">SUM(G7:H7)</f>
+        <f t="shared" ref="I7:I8" si="0">SUM(G7:H7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="12">
-        <f t="shared" ref="L7:L10" si="1">SUM(J7:K7)</f>
+        <f t="shared" ref="L7:L8" si="1">SUM(J7:K7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="14"/>
@@ -1551,19 +1565,19 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="19"/>
       <c r="S7" s="16">
-        <f t="shared" ref="S7:S10" si="2">SUM(E7:H7)+SUM(J7:K7)+SUM(M7:R7)</f>
+        <f t="shared" ref="S7:S8" si="2">SUM(E7:H7)+SUM(J7:K7)+SUM(M7:R7)</f>
         <v>0</v>
       </c>
       <c r="T7" s="20"/>
       <c r="U7" s="18">
-        <f t="shared" ref="U7:U10" si="3">S7+T7</f>
+        <f t="shared" ref="U7:U8" si="3">S7+T7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="24" customHeight="1">
+    <row r="8" spans="1:21" ht="24" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="5"/>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
@@ -1595,155 +1609,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="24" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:21" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
     </row>
-    <row r="10" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="20"/>
-      <c r="U10" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="21">
-        <f>SUM(E6:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="22">
-        <f>SUM(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <f>SUM(G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
-        <f>SUM(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
-        <f>SUM(I6:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <f>SUM(J6:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <f>SUM(K6:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="22">
-        <f>SUM(L6:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="22">
-        <f>SUM(M6:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
-        <f>SUM(N6:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <f>SUM(O6:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="22">
-        <f>SUM(P6:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="22">
-        <f>SUM(Q6:Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="23">
-        <f>SUM(R6:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="24">
-        <f>SUM(S6:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="25">
-        <f>SUM(T6:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="26">
-        <f>SUM(U6:U10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.25" thickTop="1"/>
+    <row r="10" spans="1:21" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="19">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:D5"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="Q4:Q5"/>
@@ -1757,14 +1656,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.35433070866141736" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.19685039370078741"/>
